--- a/Code/Results/Cases/Case_6_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.15903479994937</v>
+        <v>24.04018411918775</v>
       </c>
       <c r="C2">
-        <v>12.60313862993092</v>
+        <v>12.99697276967033</v>
       </c>
       <c r="D2">
-        <v>2.23678238542339</v>
+        <v>5.024174773331385</v>
       </c>
       <c r="E2">
-        <v>6.255773224144331</v>
+        <v>7.21305180056217</v>
       </c>
       <c r="F2">
-        <v>41.51927552473153</v>
+        <v>23.22658012854972</v>
       </c>
       <c r="G2">
-        <v>2.131172367764504</v>
+        <v>2.10161746922519</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.052186022982661</v>
+        <v>5.673181547621044</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.235661068735368</v>
+        <v>7.671035931033495</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.6168144153156</v>
+        <v>17.22821207537595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71658437413744</v>
+        <v>22.47967116534899</v>
       </c>
       <c r="C3">
-        <v>11.75150864330106</v>
+        <v>12.36918898951436</v>
       </c>
       <c r="D3">
-        <v>2.185467939237369</v>
+        <v>4.917996720326143</v>
       </c>
       <c r="E3">
-        <v>6.286810673695384</v>
+        <v>7.273746580645807</v>
       </c>
       <c r="F3">
-        <v>40.4131977950581</v>
+        <v>23.12565675814723</v>
       </c>
       <c r="G3">
-        <v>2.142393835560115</v>
+        <v>2.107870118034271</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.10690178376629</v>
+        <v>5.752285013972995</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.081079781859653</v>
+        <v>7.42552388991779</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.85188648731074</v>
+        <v>17.28284941248807</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80151876343961</v>
+        <v>21.46907537346724</v>
       </c>
       <c r="C4">
-        <v>11.20176623093296</v>
+        <v>11.96786445207257</v>
       </c>
       <c r="D4">
-        <v>2.154389225071605</v>
+        <v>4.853067163613556</v>
       </c>
       <c r="E4">
-        <v>6.307339741698982</v>
+        <v>7.31415817870737</v>
       </c>
       <c r="F4">
-        <v>39.75993846305494</v>
+        <v>23.09105860014314</v>
       </c>
       <c r="G4">
-        <v>2.149439923951669</v>
+        <v>2.111823382919739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.141789683626322</v>
+        <v>5.802241345115974</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.988796039236981</v>
+        <v>7.27292868078009</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.40393228810503</v>
+        <v>17.33715275836503</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.42149269725174</v>
+        <v>21.04410568596876</v>
       </c>
       <c r="C5">
-        <v>10.97090671622528</v>
+        <v>11.8004622250143</v>
       </c>
       <c r="D5">
-        <v>2.141808975293646</v>
+        <v>4.826700716453339</v>
       </c>
       <c r="E5">
-        <v>6.31607200431066</v>
+        <v>7.331402261096577</v>
       </c>
       <c r="F5">
-        <v>39.50023220571829</v>
+        <v>23.08357651459553</v>
       </c>
       <c r="G5">
-        <v>2.152353220734718</v>
+        <v>2.113463882441922</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.156334978059035</v>
+        <v>5.822956312538312</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.951871444318776</v>
+        <v>7.21035862461144</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.22678397681993</v>
+        <v>17.36424558700579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.35796846005382</v>
+        <v>20.97274778999966</v>
       </c>
       <c r="C6">
-        <v>10.93215752337374</v>
+        <v>11.77243641841845</v>
       </c>
       <c r="D6">
-        <v>2.139724502694983</v>
+        <v>4.822328984472433</v>
       </c>
       <c r="E6">
-        <v>6.317544027016003</v>
+        <v>7.334312084029783</v>
       </c>
       <c r="F6">
-        <v>39.45750075703884</v>
+        <v>23.08272579438316</v>
       </c>
       <c r="G6">
-        <v>2.152839581103177</v>
+        <v>2.113738091734638</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.158770128965761</v>
+        <v>5.826417848258899</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.945781936118872</v>
+        <v>7.199948017583107</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.19769265178224</v>
+        <v>17.369036716894</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79642205446273</v>
+        <v>21.46339722422489</v>
       </c>
       <c r="C7">
-        <v>11.19868056046131</v>
+        <v>11.96562224291661</v>
       </c>
       <c r="D7">
-        <v>2.154219250160403</v>
+        <v>4.852711164948341</v>
       </c>
       <c r="E7">
-        <v>6.307456028594951</v>
+        <v>7.314387615133063</v>
       </c>
       <c r="F7">
-        <v>39.75640965202794</v>
+        <v>23.09093126110568</v>
       </c>
       <c r="G7">
-        <v>2.149479040362099</v>
+        <v>2.111845386724177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.141984513450692</v>
+        <v>5.802519256224138</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.988295272989207</v>
+        <v>7.272086294061121</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.40152143931802</v>
+        <v>17.33749837905235</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.66790942007517</v>
+        <v>23.51301730784263</v>
       </c>
       <c r="C8">
-        <v>12.31501164229786</v>
+        <v>12.78387524532374</v>
       </c>
       <c r="D8">
-        <v>2.218985597038651</v>
+        <v>4.987525337874469</v>
       </c>
       <c r="E8">
-        <v>6.266167118903804</v>
+        <v>7.233317512419086</v>
       </c>
       <c r="F8">
-        <v>41.13252464717333</v>
+        <v>23.18594546067761</v>
       </c>
       <c r="G8">
-        <v>2.135010842685942</v>
+        <v>2.103750203706952</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.070785811000319</v>
+        <v>5.700174033364465</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.181827510315659</v>
+        <v>7.586812548271693</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.34852202222755</v>
+        <v>17.24258882572447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09748783393909</v>
+        <v>27.17130147612033</v>
       </c>
       <c r="C9">
-        <v>14.29563988744667</v>
+        <v>14.25814329921164</v>
       </c>
       <c r="D9">
-        <v>2.350560554506763</v>
+        <v>5.2528853305284</v>
       </c>
       <c r="E9">
-        <v>6.197066015109021</v>
+        <v>7.100001695075793</v>
       </c>
       <c r="F9">
-        <v>44.03735839505353</v>
+        <v>23.60059760965398</v>
       </c>
       <c r="G9">
-        <v>2.107741974836312</v>
+        <v>2.088741744493954</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.941265896412701</v>
+        <v>5.510059974188167</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.581421162008567</v>
+        <v>8.186206419185318</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.38105148723877</v>
+        <v>17.23264199586458</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.49007658742082</v>
+        <v>29.64005082076869</v>
       </c>
       <c r="C10">
-        <v>15.63076149250915</v>
+        <v>15.25738730362718</v>
       </c>
       <c r="D10">
-        <v>2.451858113652612</v>
+        <v>5.447071888518686</v>
       </c>
       <c r="E10">
-        <v>6.153833853386724</v>
+        <v>7.01875723205797</v>
       </c>
       <c r="F10">
-        <v>46.30087666671206</v>
+        <v>24.05859080912281</v>
       </c>
       <c r="G10">
-        <v>2.088170072500053</v>
+        <v>2.078184650987603</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.852046145231364</v>
+        <v>5.376220954165879</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.886460147735118</v>
+        <v>8.612116822657649</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.98698236522066</v>
+        <v>17.34837326046393</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.61274601212557</v>
+        <v>30.70486505226951</v>
       </c>
       <c r="C11">
-        <v>16.21389627836963</v>
+        <v>15.69318127071507</v>
       </c>
       <c r="D11">
-        <v>2.499429356499765</v>
+        <v>5.534988187337408</v>
       </c>
       <c r="E11">
-        <v>6.13588482037895</v>
+        <v>6.985679724935785</v>
       </c>
       <c r="F11">
-        <v>47.3603849197514</v>
+        <v>24.30293111993043</v>
       </c>
       <c r="G11">
-        <v>2.07931293861087</v>
+        <v>2.073469974983296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.812698396164214</v>
+        <v>5.316457089591838</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.027656197008969</v>
+        <v>8.802121730647665</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.74382019624864</v>
+        <v>17.43102825445796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.03195892042454</v>
+        <v>31.09983021976529</v>
       </c>
       <c r="C12">
-        <v>16.43140487040543</v>
+        <v>15.85547841231505</v>
       </c>
       <c r="D12">
-        <v>2.517704909032028</v>
+        <v>5.568200640204242</v>
       </c>
       <c r="E12">
-        <v>6.129343241123687</v>
+        <v>6.973735589104829</v>
       </c>
       <c r="F12">
-        <v>47.7661036853902</v>
+        <v>24.40082980615266</v>
       </c>
       <c r="G12">
-        <v>2.075960466080948</v>
+        <v>2.071696031212581</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.797972568150896</v>
+        <v>5.293974495646854</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.081476716444735</v>
+        <v>8.873492249373562</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.03440016082264</v>
+        <v>17.46690508582766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.94193260438843</v>
+        <v>31.01513271328515</v>
       </c>
       <c r="C13">
-        <v>16.38470484650083</v>
+        <v>15.82064650793703</v>
       </c>
       <c r="D13">
-        <v>2.513756494624475</v>
+        <v>5.561051561762322</v>
       </c>
       <c r="E13">
-        <v>6.130740583860081</v>
+        <v>6.976281712044867</v>
       </c>
       <c r="F13">
-        <v>47.67852011952207</v>
+        <v>24.37950367946919</v>
       </c>
       <c r="G13">
-        <v>2.076682501614622</v>
+        <v>2.072077595148134</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.801136347822906</v>
+        <v>5.29881011767668</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.06986968286507</v>
+        <v>8.858147723500707</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.97163763313726</v>
+        <v>17.45897070515776</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.64735190331341</v>
+        <v>30.7375238662361</v>
       </c>
       <c r="C14">
-        <v>16.23185616047517</v>
+        <v>15.70658836284603</v>
       </c>
       <c r="D14">
-        <v>2.500927365228884</v>
+        <v>5.537722291298813</v>
       </c>
       <c r="E14">
-        <v>6.135341470866816</v>
+        <v>6.984685276498731</v>
       </c>
       <c r="F14">
-        <v>47.39367179568802</v>
+        <v>24.31087656663216</v>
       </c>
       <c r="G14">
-        <v>2.07903712968402</v>
+        <v>2.073323810400148</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.811483422138004</v>
+        <v>5.314604527042465</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.032076929084001</v>
+        <v>8.808005267769866</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.76764521977928</v>
+        <v>17.43388665527686</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.46615031223679</v>
+        <v>30.56640870064621</v>
       </c>
       <c r="C15">
-        <v>16.13780605900862</v>
+        <v>15.63636845542375</v>
       </c>
       <c r="D15">
-        <v>2.493104702199384</v>
+        <v>5.523421552474985</v>
       </c>
       <c r="E15">
-        <v>6.138193169304807</v>
+        <v>6.989909172168124</v>
       </c>
       <c r="F15">
-        <v>47.21978865974862</v>
+        <v>24.26954566553946</v>
       </c>
       <c r="G15">
-        <v>2.080479443592593</v>
+        <v>2.074088600146103</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.817843889625633</v>
+        <v>5.324298040509872</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.008973931054303</v>
+        <v>8.777214889827304</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.64321950302961</v>
+        <v>17.41912568399297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.41586472985774</v>
+        <v>29.56930079570287</v>
       </c>
       <c r="C16">
-        <v>15.59217902941693</v>
+        <v>15.22852663669329</v>
       </c>
       <c r="D16">
-        <v>2.448783080712428</v>
+        <v>5.44131621045056</v>
       </c>
       <c r="E16">
-        <v>6.15504210998143</v>
+        <v>7.020998990331567</v>
       </c>
       <c r="F16">
-        <v>46.23225217089967</v>
+        <v>24.04336405738391</v>
       </c>
       <c r="G16">
-        <v>2.088749414831537</v>
+        <v>2.07849443039765</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.854642215235967</v>
+        <v>5.380148162389882</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.877281654588701</v>
+        <v>8.599620470354351</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.93806620229039</v>
+        <v>17.34359796955223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78964167104652</v>
+        <v>28.94277424188563</v>
       </c>
       <c r="C17">
-        <v>15.25136639611654</v>
+        <v>14.97349657085504</v>
       </c>
       <c r="D17">
-        <v>2.422006338466962</v>
+        <v>5.390825310871602</v>
       </c>
       <c r="E17">
-        <v>6.16582382427022</v>
+        <v>7.04108178041001</v>
       </c>
       <c r="F17">
-        <v>45.63419862756522</v>
+        <v>23.91397311484905</v>
       </c>
       <c r="G17">
-        <v>2.093831176452589</v>
+        <v>2.081218910163389</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.877531377600085</v>
+        <v>5.414688733453962</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.797115152369012</v>
+        <v>8.489680994844083</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.51233723157349</v>
+        <v>17.30513867961213</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43687943405998</v>
+        <v>28.57692435275241</v>
       </c>
       <c r="C18">
-        <v>15.05304899236134</v>
+        <v>14.8250444420757</v>
       </c>
       <c r="D18">
-        <v>2.406742172307742</v>
+        <v>5.361745741724992</v>
       </c>
       <c r="E18">
-        <v>6.172186268057405</v>
+        <v>7.052996657295424</v>
       </c>
       <c r="F18">
-        <v>45.29300365185656</v>
+        <v>23.84292839184734</v>
       </c>
       <c r="G18">
-        <v>2.096758764395428</v>
+        <v>2.08279430145525</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.89081345024909</v>
+        <v>5.434661780249141</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.751233803167105</v>
+        <v>8.426096348579891</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.26992884334436</v>
+        <v>17.28582716536799</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3169175868073</v>
+        <v>28.45210775474722</v>
       </c>
       <c r="C19">
-        <v>14.98550378792457</v>
+        <v>14.77447899519922</v>
       </c>
       <c r="D19">
-        <v>2.401596211007889</v>
+        <v>5.351893899967982</v>
       </c>
       <c r="E19">
-        <v>6.174367915314368</v>
+        <v>7.057092623001602</v>
       </c>
       <c r="F19">
-        <v>45.17795468294528</v>
+        <v>23.81944773166642</v>
       </c>
       <c r="G19">
-        <v>2.09775094672172</v>
+        <v>2.083329170511194</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.89533071304654</v>
+        <v>5.441442919715389</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.735738423926669</v>
+        <v>8.404508901756317</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.18827075249685</v>
+        <v>17.27976300876098</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85468245210313</v>
+        <v>29.01003626018138</v>
       </c>
       <c r="C20">
-        <v>15.2878824226833</v>
+        <v>15.00082794671059</v>
       </c>
       <c r="D20">
-        <v>2.424842258957482</v>
+        <v>5.396204287779681</v>
       </c>
       <c r="E20">
-        <v>6.164659364116501</v>
+        <v>7.038906117857135</v>
       </c>
       <c r="F20">
-        <v>45.69757241701672</v>
+        <v>23.92739597112002</v>
       </c>
       <c r="G20">
-        <v>2.093289763500825</v>
+        <v>2.080928029784063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.875082722991094</v>
+        <v>5.411000924221744</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.805625390595685</v>
+        <v>8.50142082833294</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.55740096559652</v>
+        <v>17.3089400684506</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.73403576470308</v>
+        <v>30.81928744558321</v>
       </c>
       <c r="C21">
-        <v>16.27683993903601</v>
+        <v>15.74016422983358</v>
       </c>
       <c r="D21">
-        <v>2.504688089236122</v>
+        <v>5.544576963257219</v>
       </c>
       <c r="E21">
-        <v>6.133983075966488</v>
+        <v>6.982200965168577</v>
       </c>
       <c r="F21">
-        <v>47.47721421228308</v>
+        <v>24.33088672446312</v>
       </c>
       <c r="G21">
-        <v>2.078345520891298</v>
+        <v>2.072957467554039</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.808439535676839</v>
+        <v>5.30996139364916</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.04316794091492</v>
+        <v>8.822749365930086</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.82745277336924</v>
+        <v>17.44112817442146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.94351465796158</v>
+        <v>31.95366841506157</v>
       </c>
       <c r="C22">
-        <v>16.90397226486714</v>
+        <v>16.20745426443744</v>
       </c>
       <c r="D22">
-        <v>2.558422390810272</v>
+        <v>5.641076250672965</v>
       </c>
       <c r="E22">
-        <v>6.11542750114684</v>
+        <v>6.948543093584295</v>
       </c>
       <c r="F22">
-        <v>48.66674176797331</v>
+        <v>24.62598565609804</v>
       </c>
       <c r="G22">
-        <v>2.068584640059</v>
+        <v>2.067814064738434</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.765898553021744</v>
+        <v>5.24478652950812</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.200478963922809</v>
+        <v>9.029360025828032</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.68085291153076</v>
+        <v>17.55431603393225</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.30103951740989</v>
+        <v>31.35258627704034</v>
       </c>
       <c r="C23">
-        <v>16.57095522405548</v>
+        <v>15.95951494162187</v>
       </c>
       <c r="D23">
-        <v>2.529584110388803</v>
+        <v>5.589621559882819</v>
       </c>
       <c r="E23">
-        <v>6.12519121295804</v>
+        <v>6.966187385388505</v>
       </c>
       <c r="F23">
-        <v>48.02935576897729</v>
+        <v>24.4655523463067</v>
       </c>
       <c r="G23">
-        <v>2.073795524890205</v>
+        <v>2.070553602457669</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.788511958496886</v>
+        <v>5.27949716950796</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.116327067958421</v>
+        <v>8.919410676152848</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.22315842012983</v>
+        <v>17.49136920088693</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82528744130494</v>
+        <v>28.97964471342287</v>
       </c>
       <c r="C24">
-        <v>15.27138095185008</v>
+        <v>14.98847713537569</v>
       </c>
       <c r="D24">
-        <v>2.423559737402833</v>
+        <v>5.393772611806618</v>
       </c>
       <c r="E24">
-        <v>6.165185306674556</v>
+        <v>7.039888587260251</v>
       </c>
       <c r="F24">
-        <v>45.66891293786169</v>
+        <v>23.92131709746412</v>
       </c>
       <c r="G24">
-        <v>2.093534517182051</v>
+        <v>2.081059508518139</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.876189376995644</v>
+        <v>5.412667822987062</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.801777265857226</v>
+        <v>8.496114426780474</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.53702034964093</v>
+        <v>17.30721276148821</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19611522429228</v>
+        <v>26.20977599127707</v>
       </c>
       <c r="C25">
-        <v>13.78146974209788</v>
+        <v>13.87380030064919</v>
       </c>
       <c r="D25">
-        <v>2.314300245123272</v>
+        <v>5.181140666632674</v>
       </c>
       <c r="E25">
-        <v>6.214460798353989</v>
+        <v>7.133215473103293</v>
       </c>
       <c r="F25">
-        <v>43.22919750754372</v>
+        <v>23.46245647799261</v>
       </c>
       <c r="G25">
-        <v>2.115021120593627</v>
+        <v>2.092715001113758</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.975245435599843</v>
+        <v>5.560419112248342</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.471267091192741</v>
+        <v>8.026361311577981</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.81190563864945</v>
+        <v>17.21485132618298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04018411918775</v>
+        <v>24.09798084765486</v>
       </c>
       <c r="C2">
-        <v>12.99697276967033</v>
+        <v>14.22613788464108</v>
       </c>
       <c r="D2">
-        <v>5.024174773331385</v>
+        <v>5.892157753671082</v>
       </c>
       <c r="E2">
-        <v>7.21305180056217</v>
+        <v>7.519785195753396</v>
       </c>
       <c r="F2">
-        <v>23.22658012854972</v>
+        <v>18.91057755368668</v>
       </c>
       <c r="G2">
-        <v>2.10161746922519</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>20.1435486107472</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.719447091695504</v>
       </c>
       <c r="J2">
-        <v>5.673181547621044</v>
+        <v>8.553013915999829</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.15210008684715</v>
       </c>
       <c r="L2">
-        <v>7.671035931033495</v>
+        <v>5.65382307592495</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.837798410647226</v>
       </c>
       <c r="O2">
-        <v>17.22821207537595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.63125941259382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47967116534899</v>
+        <v>22.50464441929846</v>
       </c>
       <c r="C3">
-        <v>12.36918898951436</v>
+        <v>13.55819121426112</v>
       </c>
       <c r="D3">
-        <v>4.917996720326143</v>
+        <v>5.775029940454471</v>
       </c>
       <c r="E3">
-        <v>7.273746580645807</v>
+        <v>7.574729453674621</v>
       </c>
       <c r="F3">
-        <v>23.12565675814723</v>
+        <v>18.87636573048157</v>
       </c>
       <c r="G3">
-        <v>2.107870118034271</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.04127497990239</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.896490793039457</v>
       </c>
       <c r="J3">
-        <v>5.752285013972995</v>
+        <v>8.641626786748031</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.46541807218892</v>
       </c>
       <c r="L3">
-        <v>7.42552388991779</v>
+        <v>5.710270008699871</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.574393409204222</v>
       </c>
       <c r="O3">
-        <v>17.28284941248807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.72389556450736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46907537346724</v>
+        <v>21.46610027555671</v>
       </c>
       <c r="C4">
-        <v>11.96786445207257</v>
+        <v>13.13393378535152</v>
       </c>
       <c r="D4">
-        <v>4.853067163613556</v>
+        <v>5.704140872608963</v>
       </c>
       <c r="E4">
-        <v>7.31415817870737</v>
+        <v>7.611168601037551</v>
       </c>
       <c r="F4">
-        <v>23.09105860014314</v>
+        <v>18.87024137500993</v>
       </c>
       <c r="G4">
-        <v>2.111823382919739</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.00045702028691</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.009727559920575</v>
       </c>
       <c r="J4">
-        <v>5.802241345115974</v>
+        <v>8.700499898471779</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.66412629791292</v>
       </c>
       <c r="L4">
-        <v>7.27292868078009</v>
+        <v>5.745913432675977</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.410849775253197</v>
       </c>
       <c r="O4">
-        <v>17.33715275836503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.79112483457199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04410568596876</v>
+        <v>21.0275609137146</v>
       </c>
       <c r="C5">
-        <v>11.8004622250143</v>
+        <v>12.96707920341902</v>
       </c>
       <c r="D5">
-        <v>4.826700716453339</v>
+        <v>5.675969190835653</v>
       </c>
       <c r="E5">
-        <v>7.331402261096577</v>
+        <v>7.625840432859232</v>
       </c>
       <c r="F5">
-        <v>23.08357651459553</v>
+        <v>18.86466222816329</v>
       </c>
       <c r="G5">
-        <v>2.113463882441922</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>19.9773871262316</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.059821018639958</v>
       </c>
       <c r="J5">
-        <v>5.822956312538312</v>
+        <v>8.723759802252145</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.74330209201043</v>
       </c>
       <c r="L5">
-        <v>7.21035862461144</v>
+        <v>5.760462524444943</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.345951990801868</v>
       </c>
       <c r="O5">
-        <v>17.36424558700579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.81635231662999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97274778999966</v>
+        <v>20.95368033573082</v>
       </c>
       <c r="C6">
-        <v>11.77243641841845</v>
+        <v>12.95074148220977</v>
       </c>
       <c r="D6">
-        <v>4.822328984472433</v>
+        <v>5.671828615173598</v>
       </c>
       <c r="E6">
-        <v>7.334312084029783</v>
+        <v>7.627281027277966</v>
       </c>
       <c r="F6">
-        <v>23.08272579438316</v>
+        <v>18.85575153177818</v>
       </c>
       <c r="G6">
-        <v>2.113738091734638</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>19.95949276246737</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.071816689135099</v>
       </c>
       <c r="J6">
-        <v>5.826417848258899</v>
+        <v>8.725461929582218</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.75242198371964</v>
       </c>
       <c r="L6">
-        <v>7.199948017583107</v>
+        <v>5.762616253999246</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.337737991050429</v>
       </c>
       <c r="O6">
-        <v>17.369036716894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.81498926820633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.46339722422489</v>
+        <v>21.45987005906588</v>
       </c>
       <c r="C7">
-        <v>11.96562224291661</v>
+        <v>13.16284752255625</v>
       </c>
       <c r="D7">
-        <v>4.852711164948341</v>
+        <v>5.705164540110276</v>
       </c>
       <c r="E7">
-        <v>7.314387615133063</v>
+        <v>7.608538951204964</v>
       </c>
       <c r="F7">
-        <v>23.09093126110568</v>
+        <v>18.84778672435525</v>
       </c>
       <c r="G7">
-        <v>2.111845386724177</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>19.96091605221917</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.01996363370518</v>
       </c>
       <c r="J7">
-        <v>5.802519256224138</v>
+        <v>8.694729922407749</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.65391093125048</v>
       </c>
       <c r="L7">
-        <v>7.272086294061121</v>
+        <v>5.745364305235427</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.416935043479028</v>
       </c>
       <c r="O7">
-        <v>17.33749837905235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.7758781069657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51301730784263</v>
+        <v>23.56059251640864</v>
       </c>
       <c r="C8">
-        <v>12.78387524532374</v>
+        <v>14.03807904147237</v>
       </c>
       <c r="D8">
-        <v>4.987525337874469</v>
+        <v>5.853383789188806</v>
       </c>
       <c r="E8">
-        <v>7.233317512419086</v>
+        <v>7.534439935460278</v>
       </c>
       <c r="F8">
-        <v>23.18594546067761</v>
+        <v>18.86621339314442</v>
       </c>
       <c r="G8">
-        <v>2.103750203706952</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.05217739455038</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.791939454904343</v>
       </c>
       <c r="J8">
-        <v>5.700174033364465</v>
+        <v>8.57456134241586</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.24381326190183</v>
       </c>
       <c r="L8">
-        <v>7.586812548271693</v>
+        <v>5.672157658784127</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.756208156841547</v>
       </c>
       <c r="O8">
-        <v>17.24258882572447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.64034412406557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.17130147612033</v>
+        <v>27.20578237287026</v>
       </c>
       <c r="C9">
-        <v>14.25814329921164</v>
+        <v>15.5852984759469</v>
       </c>
       <c r="D9">
-        <v>5.2528853305284</v>
+        <v>6.14830683268908</v>
       </c>
       <c r="E9">
-        <v>7.100001695075793</v>
+        <v>7.41609048435715</v>
       </c>
       <c r="F9">
-        <v>23.60059760965398</v>
+        <v>19.06537090479233</v>
       </c>
       <c r="G9">
-        <v>2.088741744493954</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>20.48336523525849</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.589186432096178</v>
       </c>
       <c r="J9">
-        <v>5.510059974188167</v>
+        <v>8.386903260142709</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.51083800095265</v>
       </c>
       <c r="L9">
-        <v>8.186206419185318</v>
+        <v>5.537438599829294</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.391718295755211</v>
       </c>
       <c r="O9">
-        <v>17.23264199586458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.48977361799533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.64005082076869</v>
+        <v>29.59842369558861</v>
       </c>
       <c r="C10">
-        <v>15.25738730362718</v>
+        <v>16.65878738084526</v>
       </c>
       <c r="D10">
-        <v>5.447071888518686</v>
+        <v>6.367775397997351</v>
       </c>
       <c r="E10">
-        <v>7.01875723205797</v>
+        <v>7.341825814094014</v>
       </c>
       <c r="F10">
-        <v>24.05859080912281</v>
+        <v>19.28269018408602</v>
       </c>
       <c r="G10">
-        <v>2.078184650987603</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>20.90278706487924</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.878444723155969</v>
       </c>
       <c r="J10">
-        <v>5.376220954165879</v>
+        <v>8.271074867157624</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.99897585858666</v>
       </c>
       <c r="L10">
-        <v>8.612116822657649</v>
+        <v>5.442509216682168</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.84618079534653</v>
       </c>
       <c r="O10">
-        <v>17.34837326046393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.43184584444332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.70486505226951</v>
+        <v>30.62539027107356</v>
       </c>
       <c r="C11">
-        <v>15.69318127071507</v>
+        <v>17.17039072652068</v>
       </c>
       <c r="D11">
-        <v>5.534988187337408</v>
+        <v>6.469681973700943</v>
       </c>
       <c r="E11">
-        <v>6.985679724935785</v>
+        <v>7.306681507503549</v>
       </c>
       <c r="F11">
-        <v>24.30293111993043</v>
+        <v>19.36585431177887</v>
       </c>
       <c r="G11">
-        <v>2.073469974983296</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>21.06231349874081</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.012970887514249</v>
       </c>
       <c r="J11">
-        <v>5.316457089591838</v>
+        <v>8.214355142697038</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.75417373002924</v>
       </c>
       <c r="L11">
-        <v>8.802121730647665</v>
+        <v>5.399254062375742</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.057984349126968</v>
       </c>
       <c r="O11">
-        <v>17.43102825445796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.39487838992507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.09983021976529</v>
+        <v>31.00584768253858</v>
       </c>
       <c r="C12">
-        <v>15.85547841231505</v>
+        <v>17.33924977879403</v>
       </c>
       <c r="D12">
-        <v>5.568200640204242</v>
+        <v>6.50717790602098</v>
       </c>
       <c r="E12">
-        <v>6.973735589104829</v>
+        <v>7.296285529983068</v>
       </c>
       <c r="F12">
-        <v>24.40082980615266</v>
+        <v>19.41882374181304</v>
       </c>
       <c r="G12">
-        <v>2.071696031212581</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>21.15887039944873</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.060681066191908</v>
       </c>
       <c r="J12">
-        <v>5.293974495646854</v>
+        <v>8.199135445846284</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.67278242348511</v>
       </c>
       <c r="L12">
-        <v>8.873492249373562</v>
+        <v>5.383515583240342</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>9.132503819483153</v>
       </c>
       <c r="O12">
-        <v>17.46690508582766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.39662658272717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.01513271328515</v>
+        <v>30.9243470622664</v>
       </c>
       <c r="C13">
-        <v>15.82064650793703</v>
+        <v>17.29860744680499</v>
       </c>
       <c r="D13">
-        <v>5.561051561762322</v>
+        <v>6.498890747218851</v>
       </c>
       <c r="E13">
-        <v>6.976281712044867</v>
+        <v>7.29899291351219</v>
       </c>
       <c r="F13">
-        <v>24.37950367946919</v>
+        <v>19.41100873171911</v>
       </c>
       <c r="G13">
-        <v>2.072077595148134</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>21.1442470786372</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.049788138105533</v>
       </c>
       <c r="J13">
-        <v>5.29881011767668</v>
+        <v>8.203446835411155</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.69232784057001</v>
       </c>
       <c r="L13">
-        <v>8.858147723500707</v>
+        <v>5.387002137165187</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>9.11549330318371</v>
       </c>
       <c r="O13">
-        <v>17.45897070515776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.3988564481112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.7375238662361</v>
+        <v>30.65688680883286</v>
       </c>
       <c r="C14">
-        <v>15.70658836284603</v>
+        <v>17.18245796405558</v>
       </c>
       <c r="D14">
-        <v>5.537722291298813</v>
+        <v>6.472676415327936</v>
       </c>
       <c r="E14">
-        <v>6.984685276498731</v>
+        <v>7.306024673498356</v>
       </c>
       <c r="F14">
-        <v>24.31087656663216</v>
+        <v>19.37173892868392</v>
       </c>
       <c r="G14">
-        <v>2.073323810400148</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>21.07288405695222</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.016624250154758</v>
       </c>
       <c r="J14">
-        <v>5.314604527042465</v>
+        <v>8.213540881498135</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.74833017239334</v>
       </c>
       <c r="L14">
-        <v>8.808005267769866</v>
+        <v>5.398000504012267</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>9.063704842372923</v>
       </c>
       <c r="O14">
-        <v>17.43388665527686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.39612777250744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.56640870064621</v>
+        <v>30.49182607243232</v>
       </c>
       <c r="C15">
-        <v>15.63636845542375</v>
+        <v>17.11972958877571</v>
       </c>
       <c r="D15">
-        <v>5.523421552474985</v>
+        <v>6.457039419782701</v>
       </c>
       <c r="E15">
-        <v>6.989909172168124</v>
+        <v>7.309429944911685</v>
       </c>
       <c r="F15">
-        <v>24.26954566553946</v>
+        <v>19.34069783514089</v>
       </c>
       <c r="G15">
-        <v>2.074088600146103</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>21.01710892233565</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.997637929335855</v>
       </c>
       <c r="J15">
-        <v>5.324298040509872</v>
+        <v>8.217729772687081</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.77873818596628</v>
       </c>
       <c r="L15">
-        <v>8.777214889827304</v>
+        <v>5.404549842339857</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>9.033871899454464</v>
       </c>
       <c r="O15">
-        <v>17.41912568399297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.38941321508378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.56930079570287</v>
+        <v>29.5292032271235</v>
       </c>
       <c r="C16">
-        <v>15.22852663669329</v>
+        <v>16.69997407254663</v>
       </c>
       <c r="D16">
-        <v>5.44131621045056</v>
+        <v>6.364724482192502</v>
       </c>
       <c r="E16">
-        <v>7.020998990331567</v>
+        <v>7.336058115716727</v>
       </c>
       <c r="F16">
-        <v>24.04336405738391</v>
+        <v>19.21526008620577</v>
       </c>
       <c r="G16">
-        <v>2.07849443039765</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>20.78573024862697</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.880092508940368</v>
       </c>
       <c r="J16">
-        <v>5.380148162389882</v>
+        <v>8.257091709321918</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.98120328992409</v>
       </c>
       <c r="L16">
-        <v>8.599620470354351</v>
+        <v>5.443609042526414</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>8.849170313464265</v>
       </c>
       <c r="O16">
-        <v>17.34359796955223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.38948083797907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.94277424188563</v>
+        <v>28.9230998106959</v>
       </c>
       <c r="C17">
-        <v>14.97349657085504</v>
+        <v>16.43794832884939</v>
       </c>
       <c r="D17">
-        <v>5.390825310871602</v>
+        <v>6.308087332733581</v>
       </c>
       <c r="E17">
-        <v>7.04108178041001</v>
+        <v>7.35326351135407</v>
       </c>
       <c r="F17">
-        <v>23.91397311484905</v>
+        <v>19.14345531552215</v>
       </c>
       <c r="G17">
-        <v>2.081218910163389</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>20.65133231990547</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.807648578357538</v>
       </c>
       <c r="J17">
-        <v>5.414688733453962</v>
+        <v>8.282904400513118</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.1075456703643</v>
       </c>
       <c r="L17">
-        <v>8.489680994844083</v>
+        <v>5.467793494250508</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.734756671639973</v>
       </c>
       <c r="O17">
-        <v>17.30513867961213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.39357606731387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.57692435275241</v>
+        <v>28.5690128032987</v>
       </c>
       <c r="C18">
-        <v>14.8250444420757</v>
+        <v>16.26234113164839</v>
       </c>
       <c r="D18">
-        <v>5.361745741724992</v>
+        <v>6.274407415032337</v>
       </c>
       <c r="E18">
-        <v>7.052996657295424</v>
+        <v>7.365934824172614</v>
       </c>
       <c r="F18">
-        <v>23.84292839184734</v>
+        <v>19.12304270253171</v>
       </c>
       <c r="G18">
-        <v>2.08279430145525</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>20.60959538670233</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.761561045727344</v>
       </c>
       <c r="J18">
-        <v>5.434661780249141</v>
+        <v>8.303726496814082</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.19110246036496</v>
       </c>
       <c r="L18">
-        <v>8.426096348579891</v>
+        <v>5.482322630186933</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.663319358355121</v>
       </c>
       <c r="O18">
-        <v>17.28582716536799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.41104390397085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.45210775474722</v>
+        <v>28.44792770314128</v>
       </c>
       <c r="C19">
-        <v>14.77447899519922</v>
+        <v>16.22050379621316</v>
       </c>
       <c r="D19">
-        <v>5.351893899967982</v>
+        <v>6.263862576327782</v>
       </c>
       <c r="E19">
-        <v>7.057092623001602</v>
+        <v>7.368380629976831</v>
       </c>
       <c r="F19">
-        <v>23.81944773166642</v>
+        <v>19.10178273188422</v>
       </c>
       <c r="G19">
-        <v>2.083329170511194</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>20.57063886570308</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.749149579720456</v>
       </c>
       <c r="J19">
-        <v>5.441442919715389</v>
+        <v>8.3067254272197</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.21170491668547</v>
       </c>
       <c r="L19">
-        <v>8.404508901756317</v>
+        <v>5.486843863168722</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.643102402396792</v>
       </c>
       <c r="O19">
-        <v>17.27976300876098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.40666243238792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.01003626018138</v>
+        <v>28.98823550552208</v>
       </c>
       <c r="C20">
-        <v>15.00082794671059</v>
+        <v>16.46420344373951</v>
       </c>
       <c r="D20">
-        <v>5.396204287779681</v>
+        <v>6.314029168033289</v>
       </c>
       <c r="E20">
-        <v>7.038906117857135</v>
+        <v>7.35159238545649</v>
       </c>
       <c r="F20">
-        <v>23.92739597112002</v>
+        <v>19.1523943202393</v>
       </c>
       <c r="G20">
-        <v>2.080928029784063</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>20.66791893654972</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.815034212830625</v>
       </c>
       <c r="J20">
-        <v>5.411000924221744</v>
+        <v>8.280517236592251</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.09481316761081</v>
       </c>
       <c r="L20">
-        <v>8.50142082833294</v>
+        <v>5.46525202413455</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.746569065996139</v>
       </c>
       <c r="O20">
-        <v>17.3089400684506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.39406119001787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.81928744558321</v>
+        <v>30.7353900655976</v>
       </c>
       <c r="C21">
-        <v>15.74016422983358</v>
+        <v>17.24134438849174</v>
       </c>
       <c r="D21">
-        <v>5.544576963257219</v>
+        <v>6.481574275170063</v>
       </c>
       <c r="E21">
-        <v>6.982200965168577</v>
+        <v>7.30119892085843</v>
       </c>
       <c r="F21">
-        <v>24.33088672446312</v>
+        <v>19.3623072951307</v>
       </c>
       <c r="G21">
-        <v>2.072957467554039</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>21.05801351154739</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.030234122986327</v>
       </c>
       <c r="J21">
-        <v>5.30996139364916</v>
+        <v>8.204521425802861</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.72029405069519</v>
       </c>
       <c r="L21">
-        <v>8.822749365930086</v>
+        <v>5.39419313785204</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.08450978501924</v>
       </c>
       <c r="O21">
-        <v>17.44112817442146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.38167221407921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.95366841506157</v>
+        <v>31.82697371722189</v>
       </c>
       <c r="C22">
-        <v>16.20745426443744</v>
+        <v>17.70294761492745</v>
       </c>
       <c r="D22">
-        <v>5.641076250672965</v>
+        <v>6.589423978273386</v>
       </c>
       <c r="E22">
-        <v>6.948543093584295</v>
+        <v>7.27466344141894</v>
       </c>
       <c r="F22">
-        <v>24.62598565609804</v>
+        <v>19.54316951349985</v>
       </c>
       <c r="G22">
-        <v>2.067814064738434</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>21.38324474092764</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.164742027306348</v>
       </c>
       <c r="J22">
-        <v>5.24478652950812</v>
+        <v>8.168186398679923</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.49746166217824</v>
       </c>
       <c r="L22">
-        <v>9.029360025828032</v>
+        <v>5.34918760749202</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.294482215121228</v>
       </c>
       <c r="O22">
-        <v>17.55431603393225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.40665571074472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.35258627704034</v>
+        <v>31.24933660143012</v>
       </c>
       <c r="C23">
-        <v>15.95951494162187</v>
+        <v>17.4284209758488</v>
       </c>
       <c r="D23">
-        <v>5.589621559882819</v>
+        <v>6.530448981765101</v>
       </c>
       <c r="E23">
-        <v>6.966187385388505</v>
+        <v>7.291866084680749</v>
       </c>
       <c r="F23">
-        <v>24.4655523463067</v>
+        <v>19.47015041216399</v>
       </c>
       <c r="G23">
-        <v>2.070553602457669</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>21.25022391289574</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.088868850223642</v>
       </c>
       <c r="J23">
-        <v>5.27949716950796</v>
+        <v>8.194312545442886</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.62970672554444</v>
       </c>
       <c r="L23">
-        <v>8.919410676152848</v>
+        <v>5.373833894045287</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.176111221123147</v>
       </c>
       <c r="O23">
-        <v>17.49136920088693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.41031701211467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.97964471342287</v>
+        <v>28.95937734453977</v>
       </c>
       <c r="C24">
-        <v>14.98847713537569</v>
+        <v>16.40358178326366</v>
       </c>
       <c r="D24">
-        <v>5.393772611806618</v>
+        <v>6.309005370836704</v>
       </c>
       <c r="E24">
-        <v>7.039888587260251</v>
+        <v>7.35755607268228</v>
       </c>
       <c r="F24">
-        <v>23.92131709746412</v>
+        <v>19.1885074807582</v>
       </c>
       <c r="G24">
-        <v>2.081059508518139</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>20.72959419310266</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.803777840074426</v>
       </c>
       <c r="J24">
-        <v>5.412667822987062</v>
+        <v>8.292995842928237</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.12212555415516</v>
       </c>
       <c r="L24">
-        <v>8.496114426780474</v>
+        <v>5.4675287828801</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.730234154142373</v>
       </c>
       <c r="O24">
-        <v>17.30721276148821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.42275434656492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20977599127707</v>
+        <v>26.26948799913485</v>
       </c>
       <c r="C25">
-        <v>13.87380030064919</v>
+        <v>15.22999956356026</v>
       </c>
       <c r="D25">
-        <v>5.181140666632674</v>
+        <v>6.070370961467023</v>
       </c>
       <c r="E25">
-        <v>7.133215473103293</v>
+        <v>7.440619853758079</v>
       </c>
       <c r="F25">
-        <v>23.46245647799261</v>
+        <v>18.95792825259328</v>
       </c>
       <c r="G25">
-        <v>2.092715001113758</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>20.27715635327085</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.495030910187751</v>
       </c>
       <c r="J25">
-        <v>5.560419112248342</v>
+        <v>8.422410128629711</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.68287220346874</v>
       </c>
       <c r="L25">
-        <v>8.026361311577981</v>
+        <v>5.571928521659682</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.233507545720194</v>
       </c>
       <c r="O25">
-        <v>17.21485132618298</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.49224015764284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09798084765486</v>
+        <v>24.13174728253098</v>
       </c>
       <c r="C2">
-        <v>14.22613788464108</v>
+        <v>14.25242742625261</v>
       </c>
       <c r="D2">
-        <v>5.892157753671082</v>
+        <v>5.891042279079898</v>
       </c>
       <c r="E2">
-        <v>7.519785195753396</v>
+        <v>7.42187231105951</v>
       </c>
       <c r="F2">
-        <v>18.91057755368668</v>
+        <v>18.61779309040412</v>
       </c>
       <c r="G2">
-        <v>20.1435486107472</v>
+        <v>19.02456246049599</v>
       </c>
       <c r="I2">
-        <v>2.719447091695504</v>
+        <v>2.63108920286022</v>
       </c>
       <c r="J2">
-        <v>8.553013915999829</v>
+        <v>8.917777010706542</v>
       </c>
       <c r="K2">
-        <v>13.15210008684715</v>
+        <v>12.84642348699513</v>
       </c>
       <c r="L2">
-        <v>5.65382307592495</v>
+        <v>10.97872903795929</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.978044512633424</v>
       </c>
       <c r="N2">
-        <v>7.837798410647226</v>
+        <v>5.592271711441488</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.928927231849214</v>
       </c>
       <c r="Q2">
-        <v>13.63125941259382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.41338593455191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50464441929846</v>
+        <v>22.54490617382811</v>
       </c>
       <c r="C3">
-        <v>13.55819121426112</v>
+        <v>13.49380420982433</v>
       </c>
       <c r="D3">
-        <v>5.775029940454471</v>
+        <v>5.773060603845257</v>
       </c>
       <c r="E3">
-        <v>7.574729453674621</v>
+        <v>7.477800949910042</v>
       </c>
       <c r="F3">
-        <v>18.87636573048157</v>
+        <v>18.59877825891159</v>
       </c>
       <c r="G3">
-        <v>20.04127497990239</v>
+        <v>18.97956124174416</v>
       </c>
       <c r="I3">
-        <v>2.896490793039457</v>
+        <v>2.788707919710253</v>
       </c>
       <c r="J3">
-        <v>8.641626786748031</v>
+        <v>8.968410186260591</v>
       </c>
       <c r="K3">
-        <v>13.46541807218892</v>
+        <v>13.14774674279839</v>
       </c>
       <c r="L3">
-        <v>5.710270008699871</v>
+        <v>11.2034333652018</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.247383586490091</v>
       </c>
       <c r="N3">
-        <v>7.574393409204222</v>
+        <v>5.644085032977596</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.656640419960718</v>
       </c>
       <c r="Q3">
-        <v>13.72389556450736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.51216520328523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46610027555671</v>
+        <v>21.51048156957777</v>
       </c>
       <c r="C4">
-        <v>13.13393378535152</v>
+        <v>13.01068549668159</v>
       </c>
       <c r="D4">
-        <v>5.704140872608963</v>
+        <v>5.701752085423276</v>
       </c>
       <c r="E4">
-        <v>7.611168601037551</v>
+        <v>7.514635278761118</v>
       </c>
       <c r="F4">
-        <v>18.87024137500993</v>
+        <v>18.59958146318801</v>
       </c>
       <c r="G4">
-        <v>20.00045702028691</v>
+        <v>18.97487198317093</v>
       </c>
       <c r="I4">
-        <v>3.009727559920575</v>
+        <v>2.889862033642589</v>
       </c>
       <c r="J4">
-        <v>8.700499898471779</v>
+        <v>9.001733600732726</v>
       </c>
       <c r="K4">
-        <v>13.66412629791292</v>
+        <v>13.33786505022688</v>
       </c>
       <c r="L4">
-        <v>5.745913432675977</v>
+        <v>11.34759473330328</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.430899761991585</v>
       </c>
       <c r="N4">
-        <v>7.410849775253197</v>
+        <v>5.676833466475628</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.487736617119856</v>
       </c>
       <c r="Q4">
-        <v>13.79112483457199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.58132818685566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0275609137146</v>
+        <v>21.07366029266497</v>
       </c>
       <c r="C5">
-        <v>12.96707920341902</v>
+        <v>12.81923189237647</v>
       </c>
       <c r="D5">
-        <v>5.675969190835653</v>
+        <v>5.673434861556801</v>
       </c>
       <c r="E5">
-        <v>7.625840432859232</v>
+        <v>7.529433948026641</v>
       </c>
       <c r="F5">
-        <v>18.86466222816329</v>
+        <v>18.59630771712019</v>
       </c>
       <c r="G5">
-        <v>19.9773871262316</v>
+        <v>18.96660508447469</v>
       </c>
       <c r="I5">
-        <v>3.059821018639958</v>
+        <v>2.935493541416845</v>
       </c>
       <c r="J5">
-        <v>8.723759802252145</v>
+        <v>9.014055496808433</v>
       </c>
       <c r="K5">
-        <v>13.74330209201043</v>
+        <v>13.41334093331769</v>
       </c>
       <c r="L5">
-        <v>5.760462524444943</v>
+        <v>11.40420929599983</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.508927604412211</v>
       </c>
       <c r="N5">
-        <v>7.345951990801868</v>
+        <v>5.690202298150511</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.420644817190945</v>
       </c>
       <c r="Q5">
-        <v>13.81635231662999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.60695687770446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95368033573082</v>
+        <v>21.00006216697149</v>
       </c>
       <c r="C6">
-        <v>12.95074148220977</v>
+        <v>12.7989522531953</v>
       </c>
       <c r="D6">
-        <v>5.671828615173598</v>
+        <v>5.669267975580762</v>
       </c>
       <c r="E6">
-        <v>7.627281027277966</v>
+        <v>7.530913502285337</v>
       </c>
       <c r="F6">
-        <v>18.85575153177818</v>
+        <v>18.58783831921841</v>
       </c>
       <c r="G6">
-        <v>19.95949276246737</v>
+        <v>18.95106736411323</v>
       </c>
       <c r="I6">
-        <v>3.071816689135099</v>
+        <v>2.947409845911524</v>
       </c>
       <c r="J6">
-        <v>8.725461929582218</v>
+        <v>9.013925298705935</v>
       </c>
       <c r="K6">
-        <v>13.75242198371964</v>
+        <v>13.4219458240813</v>
       </c>
       <c r="L6">
-        <v>5.762616253999246</v>
+        <v>11.4092156766867</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.520763292637746</v>
       </c>
       <c r="N6">
-        <v>7.337737991050429</v>
+        <v>5.692175145345318</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.412014610405454</v>
       </c>
       <c r="Q6">
-        <v>13.81498926820633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.60570604580679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45987005906588</v>
+        <v>21.50407110153767</v>
       </c>
       <c r="C7">
-        <v>13.16284752255625</v>
+        <v>13.03451100218988</v>
       </c>
       <c r="D7">
-        <v>5.705164540110276</v>
+        <v>5.705661130400369</v>
       </c>
       <c r="E7">
-        <v>7.608538951204964</v>
+        <v>7.512662004715074</v>
       </c>
       <c r="F7">
-        <v>18.84778672435525</v>
+        <v>18.56575856065304</v>
       </c>
       <c r="G7">
-        <v>19.96091605221917</v>
+        <v>19.01073134027367</v>
       </c>
       <c r="I7">
-        <v>3.01996363370518</v>
+        <v>2.90229709455615</v>
       </c>
       <c r="J7">
-        <v>8.694729922407749</v>
+        <v>8.96441325705203</v>
       </c>
       <c r="K7">
-        <v>13.65391093125048</v>
+        <v>13.32427339987753</v>
       </c>
       <c r="L7">
-        <v>5.745364305235427</v>
+        <v>11.33234905160733</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.426415854222668</v>
       </c>
       <c r="N7">
-        <v>7.416935043479028</v>
+        <v>5.676192128108613</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.4936265520269</v>
       </c>
       <c r="Q7">
-        <v>13.7758781069657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.55750601778734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.56059251640864</v>
+        <v>23.59598312886285</v>
       </c>
       <c r="C8">
-        <v>14.03807904147237</v>
+        <v>14.0179409663332</v>
       </c>
       <c r="D8">
-        <v>5.853383789188806</v>
+        <v>5.861377765356705</v>
       </c>
       <c r="E8">
-        <v>7.534439935460278</v>
+        <v>7.439034512666895</v>
       </c>
       <c r="F8">
-        <v>18.86621339314442</v>
+        <v>18.54108877131782</v>
       </c>
       <c r="G8">
-        <v>20.05217739455038</v>
+        <v>19.20373391810343</v>
       </c>
       <c r="I8">
-        <v>2.791939454904343</v>
+        <v>2.700742749708223</v>
       </c>
       <c r="J8">
-        <v>8.57456134241586</v>
+        <v>8.823939970163375</v>
       </c>
       <c r="K8">
-        <v>13.24381326190183</v>
+        <v>12.92293148799436</v>
       </c>
       <c r="L8">
-        <v>5.672157658784127</v>
+        <v>11.02922882748614</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.053068583965281</v>
       </c>
       <c r="N8">
-        <v>7.756208156841547</v>
+        <v>5.608724509431577</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.843955818077634</v>
       </c>
       <c r="Q8">
-        <v>13.64034412406557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.39612437385647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.20578237287026</v>
+        <v>27.22519968029266</v>
       </c>
       <c r="C9">
-        <v>15.5852984759469</v>
+        <v>15.76967787886096</v>
       </c>
       <c r="D9">
-        <v>6.14830683268908</v>
+        <v>6.16102034210929</v>
       </c>
       <c r="E9">
-        <v>7.41609048435715</v>
+        <v>7.317592024570159</v>
       </c>
       <c r="F9">
-        <v>19.06537090479233</v>
+        <v>18.67834667857068</v>
       </c>
       <c r="G9">
-        <v>20.48336523525849</v>
+        <v>19.56498802319765</v>
       </c>
       <c r="I9">
-        <v>2.589186432096178</v>
+        <v>2.640979373068141</v>
       </c>
       <c r="J9">
-        <v>8.386903260142709</v>
+        <v>8.688264905914135</v>
       </c>
       <c r="K9">
-        <v>12.51083800095265</v>
+        <v>12.20865396436534</v>
       </c>
       <c r="L9">
-        <v>5.537438599829294</v>
+        <v>10.51713666337463</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.489727767586746</v>
       </c>
       <c r="N9">
-        <v>8.391718295755211</v>
+        <v>5.48523888497101</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.501744061322899</v>
       </c>
       <c r="Q9">
-        <v>13.48977361799533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.21085637496538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.59842369558861</v>
+        <v>29.60509445164729</v>
       </c>
       <c r="C10">
-        <v>16.65878738084526</v>
+        <v>16.95218807199598</v>
       </c>
       <c r="D10">
-        <v>6.367775397997351</v>
+        <v>6.399705575226042</v>
       </c>
       <c r="E10">
-        <v>7.341825814094014</v>
+        <v>7.243819305402497</v>
       </c>
       <c r="F10">
-        <v>19.28269018408602</v>
+        <v>18.77223846980203</v>
       </c>
       <c r="G10">
-        <v>20.90278706487924</v>
+        <v>20.37205144611138</v>
       </c>
       <c r="I10">
-        <v>2.878444723155969</v>
+        <v>2.898009941247409</v>
       </c>
       <c r="J10">
-        <v>8.271074867157624</v>
+        <v>8.423205567978222</v>
       </c>
       <c r="K10">
-        <v>11.99897585858666</v>
+        <v>11.68211463769291</v>
       </c>
       <c r="L10">
-        <v>5.442509216682168</v>
+        <v>10.15440506481836</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.159001872602184</v>
       </c>
       <c r="N10">
-        <v>8.84618079534653</v>
+        <v>5.397937885610865</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.971713927083046</v>
       </c>
       <c r="Q10">
-        <v>13.43184584444332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.06561217610581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.62539027107356</v>
+        <v>30.62470411038094</v>
       </c>
       <c r="C11">
-        <v>17.17039072652068</v>
+        <v>17.4685791982402</v>
       </c>
       <c r="D11">
-        <v>6.469681973700943</v>
+        <v>6.537523963380204</v>
       </c>
       <c r="E11">
-        <v>7.306681507503549</v>
+        <v>7.215903564105643</v>
       </c>
       <c r="F11">
-        <v>19.36585431177887</v>
+        <v>18.68106471904889</v>
       </c>
       <c r="G11">
-        <v>21.06231349874081</v>
+        <v>21.47106327237376</v>
       </c>
       <c r="I11">
-        <v>3.012970887514249</v>
+        <v>3.016567143829257</v>
       </c>
       <c r="J11">
-        <v>8.214355142697038</v>
+        <v>8.022827779960165</v>
       </c>
       <c r="K11">
-        <v>11.75417373002924</v>
+        <v>11.39407832399336</v>
       </c>
       <c r="L11">
-        <v>5.399254062375742</v>
+        <v>9.966531170283416</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.978555921567145</v>
       </c>
       <c r="N11">
-        <v>9.057984349126968</v>
+        <v>5.357472664753032</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.189336386100862</v>
       </c>
       <c r="Q11">
-        <v>13.39487838992507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.89580742664236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.00584768253858</v>
+        <v>31.00220577742259</v>
       </c>
       <c r="C12">
-        <v>17.33924977879403</v>
+        <v>17.63399069032409</v>
       </c>
       <c r="D12">
-        <v>6.50717790602098</v>
+        <v>6.592030729254611</v>
       </c>
       <c r="E12">
-        <v>7.296285529983068</v>
+        <v>7.209168705461925</v>
       </c>
       <c r="F12">
-        <v>19.41882374181304</v>
+        <v>18.6522579986489</v>
       </c>
       <c r="G12">
-        <v>21.15887039944873</v>
+        <v>22.02052035572994</v>
       </c>
       <c r="I12">
-        <v>3.060681066191908</v>
+        <v>3.05704054578773</v>
       </c>
       <c r="J12">
-        <v>8.199135445846284</v>
+        <v>7.856346632919953</v>
       </c>
       <c r="K12">
-        <v>11.67278242348511</v>
+        <v>11.28994590303865</v>
       </c>
       <c r="L12">
-        <v>5.383515583240342</v>
+        <v>9.900550744722974</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.916560258899204</v>
       </c>
       <c r="N12">
-        <v>9.132503819483153</v>
+        <v>5.342618784730234</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.265971640547978</v>
       </c>
       <c r="Q12">
-        <v>13.39662658272717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.83441621960002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.9243470622664</v>
+        <v>30.9213470095354</v>
       </c>
       <c r="C13">
-        <v>17.29860744680499</v>
+        <v>17.59430843884063</v>
       </c>
       <c r="D13">
-        <v>6.498890747218851</v>
+        <v>6.579927365306857</v>
       </c>
       <c r="E13">
-        <v>7.29899291351219</v>
+        <v>7.211025593286315</v>
       </c>
       <c r="F13">
-        <v>19.41100873171911</v>
+        <v>18.66261296764072</v>
       </c>
       <c r="G13">
-        <v>21.1442470786372</v>
+        <v>21.90405047277829</v>
       </c>
       <c r="I13">
-        <v>3.049788138105533</v>
+        <v>3.047512840956205</v>
       </c>
       <c r="J13">
-        <v>8.203446835411155</v>
+        <v>7.893456463171185</v>
       </c>
       <c r="K13">
-        <v>11.69232784057001</v>
+        <v>11.31429730701071</v>
       </c>
       <c r="L13">
-        <v>5.387002137165187</v>
+        <v>9.915761621014301</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.931814066277371</v>
       </c>
       <c r="N13">
-        <v>9.11549330318371</v>
+        <v>5.345898567821561</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>9.248532845501931</v>
       </c>
       <c r="Q13">
-        <v>13.3988564481112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.85066767976137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.65688680883286</v>
+        <v>30.65595999214211</v>
       </c>
       <c r="C14">
-        <v>17.18245796405558</v>
+        <v>17.48046038292459</v>
       </c>
       <c r="D14">
-        <v>6.472676415327936</v>
+        <v>6.54184938232566</v>
       </c>
       <c r="E14">
-        <v>7.306024673498356</v>
+        <v>7.21552045851082</v>
       </c>
       <c r="F14">
-        <v>19.37173892868392</v>
+        <v>18.680476827385</v>
       </c>
       <c r="G14">
-        <v>21.07288405695222</v>
+        <v>21.51695481022474</v>
       </c>
       <c r="I14">
-        <v>3.016624250154758</v>
+        <v>3.019542126850488</v>
       </c>
       <c r="J14">
-        <v>8.213540881498135</v>
+        <v>8.009731639312815</v>
       </c>
       <c r="K14">
-        <v>11.74833017239334</v>
+        <v>11.38633837081596</v>
       </c>
       <c r="L14">
-        <v>5.398000504012267</v>
+        <v>9.961543022600026</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.974257637476823</v>
       </c>
       <c r="N14">
-        <v>9.063704842372923</v>
+        <v>5.35628527351752</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>9.195242766212521</v>
       </c>
       <c r="Q14">
-        <v>13.39612777250744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.89205789953051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.49182607243232</v>
+        <v>30.49215126982748</v>
       </c>
       <c r="C15">
-        <v>17.11972958877571</v>
+        <v>17.41850111284361</v>
       </c>
       <c r="D15">
-        <v>6.457039419782701</v>
+        <v>6.51939078923028</v>
       </c>
       <c r="E15">
-        <v>7.309429944911685</v>
+        <v>7.217538080824312</v>
       </c>
       <c r="F15">
-        <v>19.34069783514089</v>
+        <v>18.68267069064643</v>
       </c>
       <c r="G15">
-        <v>21.01710892233565</v>
+        <v>21.28042482160437</v>
       </c>
       <c r="I15">
-        <v>2.997637929335855</v>
+        <v>3.004125175431106</v>
       </c>
       <c r="J15">
-        <v>8.217729772687081</v>
+        <v>8.077414340290227</v>
       </c>
       <c r="K15">
-        <v>11.77873818596628</v>
+        <v>11.42646272898146</v>
       </c>
       <c r="L15">
-        <v>5.404549842339857</v>
+        <v>9.987474295969818</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.996486916214849</v>
       </c>
       <c r="N15">
-        <v>9.033871899454464</v>
+        <v>5.362486765952873</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>9.164428238836932</v>
       </c>
       <c r="Q15">
-        <v>13.38941321508378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.91098768711549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.5292032271235</v>
+        <v>29.5363470628245</v>
       </c>
       <c r="C16">
-        <v>16.69997407254663</v>
+        <v>16.99267859780579</v>
       </c>
       <c r="D16">
-        <v>6.364724482192502</v>
+        <v>6.39473598770318</v>
       </c>
       <c r="E16">
-        <v>7.336058115716727</v>
+        <v>7.237974707679064</v>
       </c>
       <c r="F16">
-        <v>19.21526008620577</v>
+        <v>18.71601754950722</v>
       </c>
       <c r="G16">
-        <v>20.78573024862697</v>
+        <v>20.2061525669575</v>
       </c>
       <c r="I16">
-        <v>2.880092508940368</v>
+        <v>2.903897739891009</v>
       </c>
       <c r="J16">
-        <v>8.257091709321918</v>
+        <v>8.430741688026764</v>
       </c>
       <c r="K16">
-        <v>11.98120328992409</v>
+        <v>11.67051725462245</v>
       </c>
       <c r="L16">
-        <v>5.443609042526414</v>
+        <v>10.1475039613455</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.142325847487631</v>
       </c>
       <c r="N16">
-        <v>8.849170313464265</v>
+        <v>5.399136691217019</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.973986594281056</v>
       </c>
       <c r="Q16">
-        <v>13.38948083797907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.03209472295372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.9230998106959</v>
+        <v>28.93410591367487</v>
       </c>
       <c r="C17">
-        <v>16.43794832884939</v>
+        <v>16.71761581973356</v>
       </c>
       <c r="D17">
-        <v>6.308087332733581</v>
+        <v>6.3240805728217</v>
       </c>
       <c r="E17">
-        <v>7.35326351135407</v>
+        <v>7.252953734876927</v>
       </c>
       <c r="F17">
-        <v>19.14345531552215</v>
+        <v>18.71567184416217</v>
       </c>
       <c r="G17">
-        <v>20.65133231990547</v>
+        <v>19.72065302672588</v>
       </c>
       <c r="I17">
-        <v>2.807648578357538</v>
+        <v>2.841542989140841</v>
       </c>
       <c r="J17">
-        <v>8.282904400513118</v>
+        <v>8.596990610356457</v>
       </c>
       <c r="K17">
-        <v>12.1075456703643</v>
+        <v>11.81359762881939</v>
       </c>
       <c r="L17">
-        <v>5.467793494250508</v>
+        <v>10.24383971850005</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.229457020918455</v>
       </c>
       <c r="N17">
-        <v>8.734756671639973</v>
+        <v>5.421673404152065</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>8.855777486784755</v>
       </c>
       <c r="Q17">
-        <v>13.39357606731387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.08967241553666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.5690128032987</v>
+        <v>28.58211445048484</v>
       </c>
       <c r="C18">
-        <v>16.26234113164839</v>
+        <v>16.53091890980213</v>
       </c>
       <c r="D18">
-        <v>6.274407415032337</v>
+        <v>6.284415558602972</v>
       </c>
       <c r="E18">
-        <v>7.365934824172614</v>
+        <v>7.264779806625874</v>
       </c>
       <c r="F18">
-        <v>19.12304270253171</v>
+        <v>18.72667712312775</v>
       </c>
       <c r="G18">
-        <v>20.60959538670233</v>
+        <v>19.53549862774751</v>
       </c>
       <c r="I18">
-        <v>2.761561045727344</v>
+        <v>2.799876032084509</v>
       </c>
       <c r="J18">
-        <v>8.303726496814082</v>
+        <v>8.676111171555577</v>
       </c>
       <c r="K18">
-        <v>12.19110246036496</v>
+        <v>11.90270477731976</v>
       </c>
       <c r="L18">
-        <v>5.482322630186933</v>
+        <v>10.30461371204091</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.28716474297719</v>
       </c>
       <c r="N18">
-        <v>8.663319358355121</v>
+        <v>5.435105851727058</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.782167403117388</v>
       </c>
       <c r="Q18">
-        <v>13.41104390397085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.13015605602436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.44792770314128</v>
+        <v>28.46172046560666</v>
       </c>
       <c r="C19">
-        <v>16.22050379621316</v>
+        <v>16.48484055285768</v>
       </c>
       <c r="D19">
-        <v>6.263862576327782</v>
+        <v>6.272183774226926</v>
       </c>
       <c r="E19">
-        <v>7.368380629976831</v>
+        <v>7.267088275763401</v>
       </c>
       <c r="F19">
-        <v>19.10178273188422</v>
+        <v>18.71491129999844</v>
       </c>
       <c r="G19">
-        <v>20.57063886570308</v>
+        <v>19.45771336204264</v>
       </c>
       <c r="I19">
-        <v>2.749149579720456</v>
+        <v>2.789803929725923</v>
       </c>
       <c r="J19">
-        <v>8.3067254272197</v>
+        <v>8.695291147657587</v>
       </c>
       <c r="K19">
-        <v>12.21170491668547</v>
+        <v>11.92546131463854</v>
       </c>
       <c r="L19">
-        <v>5.486843863168722</v>
+        <v>10.32020905260208</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.300405082159128</v>
       </c>
       <c r="N19">
-        <v>8.643102402396792</v>
+        <v>5.439307835533076</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.761126914540093</v>
       </c>
       <c r="Q19">
-        <v>13.40666243238792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.13271960421913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.98823550552208</v>
+        <v>28.99884274589458</v>
       </c>
       <c r="C20">
-        <v>16.46420344373951</v>
+        <v>16.74560552458784</v>
       </c>
       <c r="D20">
-        <v>6.314029168033289</v>
+        <v>6.331299993434765</v>
       </c>
       <c r="E20">
-        <v>7.35159238545649</v>
+        <v>7.251458125639812</v>
       </c>
       <c r="F20">
-        <v>19.1523943202393</v>
+        <v>18.71792010411329</v>
       </c>
       <c r="G20">
-        <v>20.66791893654972</v>
+        <v>19.76850949118859</v>
       </c>
       <c r="I20">
-        <v>2.815034212830625</v>
+        <v>2.847783967943111</v>
       </c>
       <c r="J20">
-        <v>8.280517236592251</v>
+        <v>8.581844353295583</v>
       </c>
       <c r="K20">
-        <v>12.09481316761081</v>
+        <v>11.7993196140256</v>
       </c>
       <c r="L20">
-        <v>5.46525202413455</v>
+        <v>10.23414798826001</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.220886443852953</v>
       </c>
       <c r="N20">
-        <v>8.746569065996139</v>
+        <v>5.419307508578191</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.868010692860029</v>
       </c>
       <c r="Q20">
-        <v>13.39406119001787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.08518623402448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.7353900655976</v>
+        <v>30.73336821293202</v>
       </c>
       <c r="C21">
-        <v>17.24134438849174</v>
+        <v>17.52413857640241</v>
       </c>
       <c r="D21">
-        <v>6.481574275170063</v>
+        <v>6.563871463462196</v>
       </c>
       <c r="E21">
-        <v>7.30119892085843</v>
+        <v>7.214031946514185</v>
       </c>
       <c r="F21">
-        <v>19.3623072951307</v>
+        <v>18.61396729441281</v>
       </c>
       <c r="G21">
-        <v>21.05801351154739</v>
+        <v>21.86459407414107</v>
       </c>
       <c r="I21">
-        <v>3.030234122986327</v>
+        <v>3.031627392340708</v>
       </c>
       <c r="J21">
-        <v>8.204521425802861</v>
+        <v>7.884747399523322</v>
       </c>
       <c r="K21">
-        <v>11.72029405069519</v>
+        <v>11.34256616192194</v>
       </c>
       <c r="L21">
-        <v>5.39419313785204</v>
+        <v>9.934874512073302</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.938722248760917</v>
       </c>
       <c r="N21">
-        <v>9.08450978501924</v>
+        <v>5.352468331542613</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.216076163569181</v>
       </c>
       <c r="Q21">
-        <v>13.38167221407921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.83333443604649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.82697371722189</v>
+        <v>31.8165754283875</v>
       </c>
       <c r="C22">
-        <v>17.70294761492745</v>
+        <v>17.9810151058698</v>
       </c>
       <c r="D22">
-        <v>6.589423978273386</v>
+        <v>6.71803850596567</v>
       </c>
       <c r="E22">
-        <v>7.27466344141894</v>
+        <v>7.197634122101984</v>
       </c>
       <c r="F22">
-        <v>19.54316951349985</v>
+        <v>18.56826110459095</v>
       </c>
       <c r="G22">
-        <v>21.38324474092764</v>
+        <v>23.4197578078538</v>
       </c>
       <c r="I22">
-        <v>3.164742027306348</v>
+        <v>3.144725751289303</v>
       </c>
       <c r="J22">
-        <v>8.168186398679923</v>
+        <v>7.481963119714403</v>
       </c>
       <c r="K22">
-        <v>11.49746166217824</v>
+        <v>11.05465825510928</v>
       </c>
       <c r="L22">
-        <v>5.34918760749202</v>
+        <v>9.756142629464495</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.776524086170952</v>
       </c>
       <c r="N22">
-        <v>9.294482215121228</v>
+        <v>5.310092699375328</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.432241741206862</v>
       </c>
       <c r="Q22">
-        <v>13.40665571074472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.68226450533058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.24933660143012</v>
+        <v>31.24373785695686</v>
       </c>
       <c r="C23">
-        <v>17.4284209758488</v>
+        <v>17.71950009057854</v>
       </c>
       <c r="D23">
-        <v>6.530448981765101</v>
+        <v>6.627262758903614</v>
       </c>
       <c r="E23">
-        <v>7.291866084680749</v>
+        <v>7.207359201352742</v>
       </c>
       <c r="F23">
-        <v>19.47015041216399</v>
+        <v>18.64584364351407</v>
       </c>
       <c r="G23">
-        <v>21.25022391289574</v>
+        <v>22.4320703625073</v>
       </c>
       <c r="I23">
-        <v>3.088868850223642</v>
+        <v>3.079644986557444</v>
       </c>
       <c r="J23">
-        <v>8.194312545442886</v>
+        <v>7.749160536869777</v>
       </c>
       <c r="K23">
-        <v>11.62970672554444</v>
+        <v>11.22916815127609</v>
       </c>
       <c r="L23">
-        <v>5.373833894045287</v>
+        <v>9.862111382505207</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.883771314889553</v>
       </c>
       <c r="N23">
-        <v>9.176111221123147</v>
+        <v>5.333398646859408</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.310971167703972</v>
       </c>
       <c r="Q23">
-        <v>13.41031701211467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.8031615445664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.95937734453977</v>
+        <v>28.9701566435447</v>
       </c>
       <c r="C24">
-        <v>16.40358178326366</v>
+        <v>16.68393802884797</v>
       </c>
       <c r="D24">
-        <v>6.309005370836704</v>
+        <v>6.325715456526475</v>
       </c>
       <c r="E24">
-        <v>7.35755607268228</v>
+        <v>7.25716474463331</v>
       </c>
       <c r="F24">
-        <v>19.1885074807582</v>
+        <v>18.75596342329767</v>
       </c>
       <c r="G24">
-        <v>20.72959419310266</v>
+        <v>19.81609046118867</v>
       </c>
       <c r="I24">
-        <v>2.803777840074426</v>
+        <v>2.834777942964692</v>
       </c>
       <c r="J24">
-        <v>8.292995842928237</v>
+        <v>8.598931391423314</v>
       </c>
       <c r="K24">
-        <v>12.12212555415516</v>
+        <v>11.82505516933841</v>
       </c>
       <c r="L24">
-        <v>5.4675287828801</v>
+        <v>10.25142082516818</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.242255390307749</v>
       </c>
       <c r="N24">
-        <v>8.730234154142373</v>
+        <v>5.421325704837586</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.851688799087377</v>
       </c>
       <c r="Q24">
-        <v>13.42275434656492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.11509448642701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.26948799913485</v>
+        <v>26.29344864295165</v>
       </c>
       <c r="C25">
-        <v>15.22999956356026</v>
+        <v>15.36891674286717</v>
       </c>
       <c r="D25">
-        <v>6.070370961467023</v>
+        <v>6.077809113746069</v>
       </c>
       <c r="E25">
-        <v>7.440619853758079</v>
+        <v>7.342407573053329</v>
       </c>
       <c r="F25">
-        <v>18.95792825259328</v>
+        <v>18.60711081673693</v>
       </c>
       <c r="G25">
-        <v>20.27715635327085</v>
+        <v>19.26924038246124</v>
       </c>
       <c r="I25">
-        <v>2.495030910187751</v>
+        <v>2.553649482881805</v>
       </c>
       <c r="J25">
-        <v>8.422410128629711</v>
+        <v>8.756473049768267</v>
       </c>
       <c r="K25">
-        <v>12.68287220346874</v>
+        <v>12.38378736782411</v>
       </c>
       <c r="L25">
-        <v>5.571928521659682</v>
+        <v>10.63947005606776</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.613880967943103</v>
       </c>
       <c r="N25">
-        <v>8.233507545720194</v>
+        <v>5.517014704984664</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.337406919918109</v>
       </c>
       <c r="Q25">
-        <v>13.49224015764284</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.23792251527439</v>
       </c>
     </row>
   </sheetData>
